--- a/Mifos Automation Excels/Client/2474-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-PATTERN-VAR-INST-CASH-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/2474-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-PATTERN-VAR-INST-CASH-Makerepayment1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -123,8 +118,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +129,14 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -218,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -240,6 +243,9 @@
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -301,7 +307,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -334,26 +340,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -386,23 +375,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -615,44 +587,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>5000</v>
       </c>
@@ -669,9 +640,8 @@
       <c r="F2" s="6">
         <v>854.25</v>
       </c>
-      <c r="G2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>212.45</v>
       </c>
@@ -691,7 +661,7 @@
         <v>45.75</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>0</v>
       </c>
@@ -711,7 +681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>0</v>
       </c>
@@ -740,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
